--- a/matchs.xlsx
+++ b/matchs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tburg\Documents\Projet\VBCMundo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6432650C-8686-4BB9-A241-82C10A30B989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ED3BE7-1275-473A-BC15-95FC22FE3AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2985" yWindow="4605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Senior 1 Pré-National" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -722,11 +722,11 @@
         <f>D2&amp;".png"</f>
         <v>Pfastatt.png</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -750,11 +750,11 @@
         <f t="shared" ref="E3:E10" si="0">D3&amp;".png"</f>
         <v>Gondrexange.png</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -777,11 +777,11 @@
       <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -805,6 +805,12 @@
         <f t="shared" si="0"/>
         <v>Saint-Dié.png</v>
       </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
@@ -826,6 +832,12 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
@@ -847,6 +859,12 @@
       <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>VBCS.png</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -1127,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1185,11 +1203,11 @@
       <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -1212,11 +1230,11 @@
         <f t="shared" ref="E3" si="0">D3&amp;".png"</f>
         <v>VBCS.png</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -1235,7 +1253,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1293,11 +1311,11 @@
         <f>D2&amp;".png"</f>
         <v>Pfastatt.png</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -1319,9 +1337,6 @@
       <c r="E3" t="str">
         <f t="shared" ref="E3" si="0">D3&amp;".png"</f>
         <v>Gondrexange.png</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
